--- a/Whole_Catchment/morphology/data/whole_catchment_data.xlsx
+++ b/Whole_Catchment/morphology/data/whole_catchment_data.xlsx
@@ -764,10 +764,10 @@
   <dimension ref="A1:AW121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomRight" sqref="A1:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Whole_Catchment/morphology/data/whole_catchment_data.xlsx
+++ b/Whole_Catchment/morphology/data/whole_catchment_data.xlsx
@@ -767,7 +767,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD82"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
